--- a/hadoop-study/hadoop学习笔记.xlsx
+++ b/hadoop-study/hadoop学习笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\eclipse_4.5_workspace\study\hadoop-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1E2D6422-A03E-4F06-BD94-DD54F047605A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AFFB5D69-296A-4F4A-9789-EFD286EB0EF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" tabRatio="780" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hadoop运行流程" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="334">
   <si>
     <t>1. mapreduce入口：mainApp</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -197,10 +197,6 @@
     <t>reduce task的数量由mapred.reduce.tasks这个参数设定，默认值是1。</t>
   </si>
   <si>
-    <t>合适的reduce task数量是0.95或者0.75*( nodes * mapred.tasktracker.reduce.tasks.maximum), 其中，mapred.tasktracker.tasks.reduce.maximum的数量一般设置为各节点cpu core数量，即能同时计算的slot数量。对于0.95，当map结束时，所有的reduce能够立即启动；对于0.75，较快的节点结束第一轮reduce后，可以开始第二轮的reduce任务，从而提高负载均衡</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> /** </t>
   </si>
   <si>
@@ -1120,6 +1116,23 @@
   </si>
   <si>
     <t>配置文件为xml</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapreduce.input.fileinputformat.input.dir.recursive=true</t>
+  </si>
+  <si>
+    <t>2.MapReduce支持递归子目录作为输入</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>set hive.mapred.supports.subdirectories=true;</t>
+  </si>
+  <si>
+    <t>set mapreduce.input.fileinputformat.input.dir.recursive=true;</t>
+  </si>
+  <si>
+    <t>合适的reduce task数量是0.95或者1.75*( nodes * mapred.tasktracker.reduce.tasks.maximum), 其中，mapred.tasktracker.tasks.reduce.maximum的数量一般设置为各节点cpu core数量，即能同时计算的slot数量。对于0.95，当map结束时，所有的reduce能够立即启动；对于1.75，较快的节点结束第一轮reduce后，可以开始第二轮的reduce任务，从而提高负载均衡</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1127,7 +1140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1318,6 +1331,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1751,7 +1770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1771,6 +1790,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3435,7 +3457,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3456,7 +3478,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3464,7 +3486,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3477,7 +3499,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3494,7 +3516,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3530,7 +3552,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3549,7 +3571,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3856,10 +3878,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3876,7 +3898,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3926,7 +3948,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3944,7 +3966,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3978,7 +4000,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4063,7 +4085,7 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4083,7 +4105,7 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4103,10 +4125,10 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -4125,7 +4147,7 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4145,7 +4167,7 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4165,7 +4187,7 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4204,7 +4226,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -4224,7 +4246,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -4245,7 +4267,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -4265,7 +4287,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -4285,7 +4307,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -4306,7 +4328,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -4327,7 +4349,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -4348,7 +4370,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -4368,7 +4390,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -4388,7 +4410,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -4408,7 +4430,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -4427,7 +4449,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -4446,7 +4468,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -4465,7 +4487,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -4485,7 +4507,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -4504,7 +4526,7 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4525,7 +4547,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -4545,7 +4567,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -4564,7 +4586,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4584,7 +4606,7 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4603,7 +4625,7 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4641,7 +4663,7 @@
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -4680,7 +4702,7 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4700,7 +4722,7 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4721,7 +4743,7 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -4740,7 +4762,7 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4760,7 +4782,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4780,7 +4802,7 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4801,7 +4823,7 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -4822,7 +4844,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -4843,7 +4865,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -4862,7 +4884,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -4881,7 +4903,7 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -4899,7 +4921,7 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4918,7 +4940,7 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4936,7 +4958,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -5251,7 +5273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -5259,7 +5281,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5274,11 +5296,11 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5291,11 +5313,11 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5308,11 +5330,11 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5325,11 +5347,11 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5471,11 +5493,11 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5491,12 +5513,12 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -6001,7 +6023,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6057,7 +6079,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6103,7 +6125,9 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -6133,7 +6157,9 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -6163,7 +6189,9 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -6178,7 +6206,9 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -6360,6 +6390,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -6397,8 +6428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6548,7 +6579,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6612,7 +6643,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6656,7 +6687,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6672,7 +6703,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -6688,7 +6719,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -6704,7 +6735,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -6720,7 +6751,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -6736,7 +6767,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -6752,7 +6783,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -6768,7 +6799,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -6784,7 +6815,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -6814,7 +6845,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -6830,7 +6861,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -6846,7 +6877,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6862,72 +6893,72 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
@@ -6935,42 +6966,42 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
@@ -6978,122 +7009,122 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
@@ -7117,7 +7148,7 @@
     </row>
     <row r="83" spans="1:1" ht="57" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>32</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
@@ -7142,7 +7173,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7159,7 +7190,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -7176,7 +7207,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -7193,7 +7224,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7210,7 +7241,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -7227,7 +7258,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -7259,7 +7290,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -7276,7 +7307,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -7293,7 +7324,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -7325,7 +7356,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -7342,7 +7373,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -7374,7 +7405,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -7406,7 +7437,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -7423,7 +7454,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -7445,7 +7476,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -7487,7 +7518,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -7509,7 +7540,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -7531,7 +7562,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -7573,7 +7604,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7595,7 +7626,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -7637,7 +7668,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -7659,7 +7690,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -7681,7 +7712,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7703,7 +7734,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -7746,7 +7777,7 @@
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -7768,7 +7799,7 @@
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -7810,7 +7841,7 @@
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -7833,7 +7864,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -7854,7 +7885,7 @@
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -7896,7 +7927,7 @@
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -7919,7 +7950,7 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -7940,7 +7971,7 @@
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -7982,7 +8013,7 @@
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -8005,7 +8036,7 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -8026,7 +8057,7 @@
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -8068,7 +8099,7 @@
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -8091,7 +8122,7 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -8112,7 +8143,7 @@
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -8154,7 +8185,7 @@
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -8177,7 +8208,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -8198,7 +8229,7 @@
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -8240,7 +8271,7 @@
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -8263,7 +8294,7 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -8285,7 +8316,7 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -8307,7 +8338,7 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -8328,7 +8359,7 @@
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8370,7 +8401,7 @@
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -8393,7 +8424,7 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -8415,7 +8446,7 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -8436,7 +8467,7 @@
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -8478,7 +8509,7 @@
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -8501,7 +8532,7 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -8523,7 +8554,7 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -8544,7 +8575,7 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -8586,7 +8617,7 @@
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -8608,7 +8639,7 @@
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -8631,7 +8662,7 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -8653,7 +8684,7 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -8676,7 +8707,7 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -8697,7 +8728,7 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -8719,7 +8750,7 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -8740,7 +8771,7 @@
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -8782,7 +8813,7 @@
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -8804,7 +8835,7 @@
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -8827,7 +8858,7 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -8850,7 +8881,7 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -8871,7 +8902,7 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -8894,7 +8925,7 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -8915,7 +8946,7 @@
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -8938,7 +8969,7 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -8959,7 +8990,7 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -8981,7 +9012,7 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -9004,7 +9035,7 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -9027,7 +9058,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -9047,7 +9078,7 @@
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -9070,7 +9101,7 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -9091,7 +9122,7 @@
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -9114,7 +9145,7 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -9135,7 +9166,7 @@
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -9156,7 +9187,7 @@
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -9198,7 +9229,7 @@
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -9220,7 +9251,7 @@
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -9243,7 +9274,7 @@
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -9265,7 +9296,7 @@
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -9287,7 +9318,7 @@
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -9309,7 +9340,7 @@
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -9331,7 +9362,7 @@
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -9352,7 +9383,7 @@
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -9394,7 +9425,7 @@
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -9416,7 +9447,7 @@
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -9439,7 +9470,7 @@
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -9460,7 +9491,7 @@
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -9501,7 +9532,7 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -9543,7 +9574,7 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -9585,7 +9616,7 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -9627,7 +9658,7 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -9669,7 +9700,7 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -9691,7 +9722,7 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -9713,7 +9744,7 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -9735,7 +9766,7 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -9757,7 +9788,7 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -9779,7 +9810,7 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -9801,7 +9832,7 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -9823,7 +9854,7 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -9845,7 +9876,7 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -9887,7 +9918,7 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -9909,7 +9940,7 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -9931,7 +9962,7 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -9953,7 +9984,7 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -9975,7 +10006,7 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -9997,7 +10028,7 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -10040,7 +10071,7 @@
     <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -10063,7 +10094,7 @@
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -10084,7 +10115,7 @@
     <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -10126,7 +10157,7 @@
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -10148,7 +10179,7 @@
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -10172,7 +10203,7 @@
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -10213,10 +10244,10 @@
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -10257,7 +10288,7 @@
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -10278,7 +10309,7 @@
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -10320,7 +10351,7 @@
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -10342,7 +10373,7 @@
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -10385,7 +10416,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -10406,7 +10437,7 @@
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -10467,7 +10498,7 @@
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -10509,7 +10540,7 @@
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -11581,7 +11612,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11590,7 +11621,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -11610,7 +11641,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -11623,7 +11654,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -11632,7 +11663,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -11652,7 +11683,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -11665,7 +11696,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -11674,7 +11705,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -11694,7 +11725,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -11707,7 +11738,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -11716,7 +11747,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -11729,7 +11760,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -11738,10 +11769,10 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -11753,7 +11784,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -11762,10 +11793,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -11777,7 +11808,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -11786,7 +11817,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -11799,7 +11830,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -11808,7 +11839,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -11828,7 +11859,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -11841,7 +11872,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -11850,7 +11881,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -11863,7 +11894,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -11872,10 +11903,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -11887,7 +11918,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -11907,7 +11938,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -11927,7 +11958,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -11947,7 +11978,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -11967,7 +11998,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -12006,7 +12037,7 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -12026,7 +12057,7 @@
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -12046,7 +12077,7 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -12066,7 +12097,7 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -12104,7 +12135,7 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -12125,7 +12156,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -12145,7 +12176,7 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -12165,7 +12196,7 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -12184,7 +12215,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -12222,7 +12253,7 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -12242,7 +12273,7 @@
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -12261,7 +12292,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -12281,7 +12312,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -12301,7 +12332,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -12321,7 +12352,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -12341,7 +12372,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -12361,7 +12392,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -12381,7 +12412,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -12401,7 +12432,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -12421,10 +12452,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -12443,11 +12474,11 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -12465,12 +12496,12 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -12487,12 +12518,12 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -12509,12 +12540,12 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -12531,12 +12562,12 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -12553,11 +12584,11 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -12575,12 +12606,12 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -12597,11 +12628,11 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -12619,7 +12650,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -12641,7 +12672,7 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -12660,7 +12691,7 @@
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -12698,7 +12729,7 @@
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -12719,7 +12750,7 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -12738,7 +12769,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -12776,7 +12807,7 @@
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -12797,7 +12828,7 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -12816,7 +12847,7 @@
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -12853,7 +12884,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -13736,7 +13767,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -14375,7 +14406,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -14413,7 +14444,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -14451,7 +14482,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -14471,7 +14502,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -14509,7 +14540,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -14548,7 +14579,7 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -14568,7 +14599,7 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -14607,7 +14638,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -14626,7 +14657,7 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -14663,7 +14694,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -14703,7 +14734,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -14723,7 +14754,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -14743,7 +14774,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -14764,7 +14795,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -14784,7 +14815,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -14803,7 +14834,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -14824,7 +14855,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -14844,7 +14875,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -14863,7 +14894,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -15060,7 +15091,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -15079,7 +15110,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -15472,7 +15503,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -15499,7 +15530,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -15518,7 +15549,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -15537,7 +15568,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -15557,7 +15588,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -15576,7 +15607,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -15586,7 +15617,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -15596,7 +15627,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -15616,7 +15647,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -15626,7 +15657,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -15637,7 +15668,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -15647,7 +15678,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -15657,7 +15688,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -15668,7 +15699,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -15687,7 +15718,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -15723,7 +15754,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -15759,7 +15790,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -15779,7 +15810,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -15815,7 +15846,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -15835,7 +15866,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -15853,7 +15884,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -15889,7 +15920,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -15908,7 +15939,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -15927,7 +15958,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -15949,7 +15980,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -15970,7 +16001,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -15991,7 +16022,7 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -16010,10 +16041,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -16033,7 +16064,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -16054,10 +16085,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -16077,12 +16108,12 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -16103,7 +16134,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -16122,7 +16153,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -16144,7 +16175,7 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -16163,11 +16194,11 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -16187,7 +16218,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -16209,7 +16240,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -16231,7 +16262,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -16251,7 +16282,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -16271,7 +16302,7 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -16292,7 +16323,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -16331,7 +16362,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -16482,7 +16513,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -16502,7 +16533,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -16542,7 +16573,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -16562,7 +16593,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -16582,7 +16613,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -16603,7 +16634,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -16623,7 +16654,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -16642,7 +16673,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -16663,7 +16694,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -16683,7 +16714,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -16702,7 +16733,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
